--- a/publication/results/fit_plane/idpt_cm0.5_bin-z_rmse-z.xlsx
+++ b/publication/results/fit_plane/idpt_cm0.5_bin-z_rmse-z.xlsx
@@ -508,31 +508,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8897240474337662</v>
+        <v>0.8897240474337672</v>
       </c>
       <c r="D2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.90736470572114</v>
+        <v>-47.90736470354975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002923741034943081</v>
+        <v>0.002923744383142027</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0391752536419531</v>
+        <v>-0.03917525097081388</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.9073647094981</v>
+        <v>-47.90736471173184</v>
       </c>
       <c r="I2" t="n">
-        <v>3.776966111515854e-09</v>
+        <v>8.182085650134113e-09</v>
       </c>
       <c r="J2" t="n">
-        <v>0.536486772901571</v>
+        <v>0.5364867722003972</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6469511856470604</v>
+        <v>0.6469511856480997</v>
       </c>
       <c r="L2" t="n">
         <v>261</v>
@@ -552,31 +552,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9247493629727603</v>
+        <v>0.9247493629727606</v>
       </c>
       <c r="D3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-43.15832958874726</v>
+        <v>-43.15832959252643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02975120402736102</v>
+        <v>0.02975124616182767</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03411911980937381</v>
+        <v>-0.03411908604566499</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.15829566121054</v>
+        <v>-43.15829565740586</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.392753672146788e-05</v>
+        <v>-3.393512057464267e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3812031786531159</v>
+        <v>0.3812031798238283</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5018445708867346</v>
+        <v>0.5018445708858136</v>
       </c>
       <c r="L3" t="n">
         <v>259</v>
@@ -596,31 +596,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9508040436138356</v>
+        <v>0.9508040436138364</v>
       </c>
       <c r="D4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-37.75910633856505</v>
+        <v>-37.75910633900375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02759764668991568</v>
+        <v>0.02759764820462476</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05464248459553759</v>
+        <v>-0.05464248338178605</v>
       </c>
       <c r="H4" t="n">
-        <v>-37.75910634568917</v>
+        <v>-37.75910634521048</v>
       </c>
       <c r="I4" t="n">
-        <v>7.124114658775352e-09</v>
+        <v>6.206723322613045e-09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3700772748572743</v>
+        <v>0.3700772748860315</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4626809213258959</v>
+        <v>0.4626809213253696</v>
       </c>
       <c r="L4" t="n">
         <v>261</v>
@@ -640,31 +640,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9650235505958499</v>
+        <v>0.9650235505958501</v>
       </c>
       <c r="D5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>-33.05534733595869</v>
+        <v>-33.0553468903539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02209911783041951</v>
+        <v>0.02209911777540353</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04824725343051989</v>
+        <v>-0.04824725347825477</v>
       </c>
       <c r="H5" t="n">
-        <v>-33.05534743465702</v>
+        <v>-33.05534790511612</v>
       </c>
       <c r="I5" t="n">
-        <v>9.869832542568245e-08</v>
+        <v>1.014762230821576e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2252295783989122</v>
+        <v>0.2252297348591148</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2906401946047582</v>
+        <v>0.2906401947539315</v>
       </c>
       <c r="L5" t="n">
         <v>261</v>
@@ -684,31 +684,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9755711938749331</v>
+        <v>0.9755711938749337</v>
       </c>
       <c r="D6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>-28.51472143323639</v>
+        <v>-28.51472039866963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01600451644950006</v>
+        <v>0.01600227715164539</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05433169505170955</v>
+        <v>-0.05433348835626835</v>
       </c>
       <c r="H6" t="n">
-        <v>-28.51472144094508</v>
+        <v>-28.51472253643639</v>
       </c>
       <c r="I6" t="n">
-        <v>7.708688063358153e-09</v>
+        <v>2.137766762820724e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1877100146483077</v>
+        <v>0.1877096900505079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2373940967949295</v>
+        <v>0.2373940968735187</v>
       </c>
       <c r="L6" t="n">
         <v>261</v>
@@ -728,31 +728,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9818862258795612</v>
+        <v>0.9818862258795614</v>
       </c>
       <c r="D7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.99373027896852</v>
+        <v>-22.99372986505345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01384436654058591</v>
+        <v>0.01384438380347476</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05995688164923275</v>
+        <v>-0.05995686774358545</v>
       </c>
       <c r="H7" t="n">
-        <v>-22.99373114396941</v>
+        <v>-22.99373158938047</v>
       </c>
       <c r="I7" t="n">
-        <v>8.650008887217909e-07</v>
+        <v>1.724327023691959e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1977208889900804</v>
+        <v>0.1977207902722045</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2627622476677032</v>
+        <v>0.2627622476962285</v>
       </c>
       <c r="L7" t="n">
         <v>261</v>
@@ -772,31 +772,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9836379317687309</v>
+        <v>0.9836379317687313</v>
       </c>
       <c r="D8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.15844604084865</v>
+        <v>-18.15844590579352</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005241901159823925</v>
+        <v>-0.005241923946757955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02237967252402965</v>
+        <v>0.02237965420154141</v>
       </c>
       <c r="H8" t="n">
-        <v>-18.15836280774548</v>
+        <v>-18.15836302628615</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.323310316693266e-05</v>
+        <v>-8.287950737351934e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2215726433625428</v>
+        <v>0.2215724110807884</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2904873847975691</v>
+        <v>0.2904873838750657</v>
       </c>
       <c r="L8" t="n">
         <v>250</v>
@@ -816,31 +816,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9817575013804291</v>
+        <v>0.9817575013804292</v>
       </c>
       <c r="D9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.415168535835</v>
+        <v>-13.4151685286195</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002177164333260961</v>
+        <v>0.002177215765504348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04229331815889881</v>
+        <v>0.042293366253538</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.41383581791434</v>
+        <v>-13.41383585144951</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.001332717920667192</v>
+        <v>-0.001332677169991604</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2318344890741546</v>
+        <v>0.2318344841209163</v>
       </c>
       <c r="K9" t="n">
-        <v>0.335785453913182</v>
+        <v>0.3357854557390636</v>
       </c>
       <c r="L9" t="n">
         <v>198</v>
@@ -860,31 +860,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9779315602172314</v>
+        <v>0.9779315602172315</v>
       </c>
       <c r="D10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.135025124290912</v>
+        <v>-8.135025160697946</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01106731557534767</v>
+        <v>-0.01106729254204301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1136203047230833</v>
+        <v>0.1136203331138794</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.132070046150696</v>
+        <v>-8.132070403520608</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002955078140216221</v>
+        <v>-0.002954757177338502</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1657762430822017</v>
+        <v>0.1657763247978984</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2215146603857485</v>
+        <v>0.2215146714479463</v>
       </c>
       <c r="L10" t="n">
         <v>153</v>
@@ -904,31 +904,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9521832822613843</v>
+        <v>0.9521832822613845</v>
       </c>
       <c r="D11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.855728999256292</v>
+        <v>-3.855728996793148</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04125131125791454</v>
+        <v>-0.04125131066606636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1533494377257457</v>
+        <v>0.1533494385872843</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.855729005911105</v>
+        <v>-3.855729007271213</v>
       </c>
       <c r="I11" t="n">
-        <v>6.654812282334561e-09</v>
+        <v>1.047806488317888e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2572776024300213</v>
+        <v>0.2572776042358215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3256955642773228</v>
+        <v>0.3256955642770705</v>
       </c>
       <c r="L11" t="n">
         <v>87</v>
@@ -948,31 +948,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9592841433934799</v>
+        <v>0.95928414339348</v>
       </c>
       <c r="D12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>2.716829267028948</v>
+        <v>2.716829253672868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00182424705962498</v>
+        <v>0.001824250506695005</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04849803932999156</v>
+        <v>-0.04849803661651918</v>
       </c>
       <c r="H12" t="n">
-        <v>2.717366122088679</v>
+        <v>2.717366136845475</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0005368550597314316</v>
+        <v>-0.0005368831726075829</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6321465574194868</v>
+        <v>0.6321465282938111</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8254583069803195</v>
+        <v>0.8254583070717334</v>
       </c>
       <c r="L12" t="n">
         <v>254</v>
@@ -992,31 +992,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9768869724195099</v>
+        <v>0.9768869724195101</v>
       </c>
       <c r="D13" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>6.673529595706299</v>
+        <v>6.673529502021212</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01024688715200273</v>
+        <v>-0.01024693133464058</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06685346551614393</v>
+        <v>-0.06685349998309338</v>
       </c>
       <c r="H13" t="n">
-        <v>6.672861391307798</v>
+        <v>6.672861462793517</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0006682043985016597</v>
+        <v>0.0006680392276944114</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1234919466262149</v>
+        <v>0.1234919261301811</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1709958019726029</v>
+        <v>0.1709958033190873</v>
       </c>
       <c r="L13" t="n">
         <v>247</v>
@@ -1036,31 +1036,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9890745249261049</v>
+        <v>0.9890745249261051</v>
       </c>
       <c r="D14" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>12.11181459961438</v>
+        <v>12.1118144898459</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007359206786966493</v>
+        <v>-0.007359601322795391</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05938049072671449</v>
+        <v>-0.05938080560965519</v>
       </c>
       <c r="H14" t="n">
-        <v>12.1118141344357</v>
+        <v>12.11181423467776</v>
       </c>
       <c r="I14" t="n">
-        <v>4.651786807122258e-07</v>
+        <v>2.551681402883376e-07</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09016939911011164</v>
+        <v>0.0901694339249907</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1311699631366295</v>
+        <v>0.1311699631618803</v>
       </c>
       <c r="L14" t="n">
         <v>258</v>
@@ -1080,31 +1080,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9891882420972179</v>
+        <v>0.9891882420972181</v>
       </c>
       <c r="D15" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.84102387525013</v>
+        <v>16.8410240919987</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009828648634253359</v>
+        <v>-0.009828890430798376</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05093396275558344</v>
+        <v>-0.05093415688516511</v>
       </c>
       <c r="H15" t="n">
-        <v>16.84102386771804</v>
+        <v>16.8410236333741</v>
       </c>
       <c r="I15" t="n">
-        <v>7.532086164650941e-09</v>
+        <v>4.586245989705739e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09003684629000061</v>
+        <v>0.09003683996772799</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1292205835470267</v>
+        <v>0.1292205834767931</v>
       </c>
       <c r="L15" t="n">
         <v>261</v>
@@ -1124,31 +1124,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.985995492082443</v>
+        <v>0.9859954920824434</v>
       </c>
       <c r="D16" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>21.97971491517319</v>
+        <v>21.97971483294274</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01293999044021384</v>
+        <v>-0.01293980222092137</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04698066758212651</v>
+        <v>-0.04698051633451843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.97971473642145</v>
+        <v>21.9797148253327</v>
       </c>
       <c r="I16" t="n">
-        <v>1.787517381656469e-07</v>
+        <v>7.610033641986981e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1087861226607711</v>
+        <v>0.1087861327477236</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1580359984064747</v>
+        <v>0.1580359984263458</v>
       </c>
       <c r="L16" t="n">
         <v>261</v>
@@ -1168,31 +1168,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9802429334610533</v>
+        <v>0.9802429334610536</v>
       </c>
       <c r="D17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>27.69131654297151</v>
+        <v>27.69131654304997</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01984333760892865</v>
+        <v>-0.01984343871658972</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0364508956358647</v>
+        <v>-0.03645097898567059</v>
       </c>
       <c r="H17" t="n">
-        <v>27.69131653534462</v>
+        <v>27.69131653527204</v>
       </c>
       <c r="I17" t="n">
-        <v>7.626892833764816e-09</v>
+        <v>7.77792808448219e-09</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1322969623999133</v>
+        <v>0.1322969624001069</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1840610486155344</v>
+        <v>0.1840610486155889</v>
       </c>
       <c r="L17" t="n">
         <v>261</v>
@@ -1212,31 +1212,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9715943216452469</v>
+        <v>0.9715943216452481</v>
       </c>
       <c r="D18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>32.51045522261187</v>
+        <v>32.51045587334217</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01700451070337832</v>
+        <v>-0.01700462126746265</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02774800421961098</v>
+        <v>-0.02774809050347974</v>
       </c>
       <c r="H18" t="n">
-        <v>32.51045461227639</v>
+        <v>32.51045391678341</v>
       </c>
       <c r="I18" t="n">
-        <v>6.103354794571928e-07</v>
+        <v>1.956558762280654e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1594709743245669</v>
+        <v>0.1594710139366607</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2128104597861354</v>
+        <v>0.2128104596747422</v>
       </c>
       <c r="L18" t="n">
         <v>261</v>
@@ -1256,31 +1256,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9586929505399638</v>
+        <v>0.9586929505399648</v>
       </c>
       <c r="D19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>37.56141520746817</v>
+        <v>37.56141513293473</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01866188769589934</v>
+        <v>-0.01865995231635126</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02945516205812356</v>
+        <v>-0.02945360243212674</v>
       </c>
       <c r="H19" t="n">
-        <v>37.56141305026267</v>
+        <v>37.56141312422948</v>
       </c>
       <c r="I19" t="n">
-        <v>2.157205507476375e-06</v>
+        <v>2.008705244205862e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2103545651334147</v>
+        <v>0.2103545597115266</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2787726330516633</v>
+        <v>0.2787726330893854</v>
       </c>
       <c r="L19" t="n">
         <v>261</v>
@@ -1300,31 +1300,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9409799581662516</v>
+        <v>0.9409799581662533</v>
       </c>
       <c r="D20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>42.39430798789245</v>
+        <v>42.3943089332864</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01676267236994886</v>
+        <v>-0.01676473376145186</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004268193054069845</v>
+        <v>0.0004251724520363722</v>
       </c>
       <c r="H20" t="n">
-        <v>42.39430797998489</v>
+        <v>42.39430697386551</v>
       </c>
       <c r="I20" t="n">
-        <v>7.90756041319356e-09</v>
+        <v>1.959420893403649e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2376051706878554</v>
+        <v>0.2376053179652944</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3137071486849023</v>
+        <v>0.3137071484214815</v>
       </c>
       <c r="L20" t="n">
         <v>261</v>
@@ -1344,31 +1344,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9087046057688193</v>
+        <v>0.9087046057688215</v>
       </c>
       <c r="D21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>47.70533248390046</v>
+        <v>47.7053324840814</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.002185765423304152</v>
+        <v>-0.002185768200717827</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0100700556044322</v>
+        <v>-0.01007005782540559</v>
       </c>
       <c r="H21" t="n">
-        <v>47.70556891856589</v>
+        <v>47.70556891833386</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0002364346654348883</v>
+        <v>-0.0002364342524561909</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3470972854816657</v>
+        <v>0.3470972855280995</v>
       </c>
       <c r="K21" t="n">
-        <v>0.460074904018948</v>
+        <v>0.4600749040184432</v>
       </c>
       <c r="L21" t="n">
         <v>260</v>
@@ -1388,31 +1388,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8570575767345878</v>
+        <v>0.857057576734591</v>
       </c>
       <c r="D22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>53.26584817504187</v>
+        <v>53.2658481682353</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01473227903870044</v>
+        <v>-0.01473214960227258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01242659144079584</v>
+        <v>0.01242669515904316</v>
       </c>
       <c r="H22" t="n">
-        <v>53.26584815141521</v>
+        <v>53.26584815899618</v>
       </c>
       <c r="I22" t="n">
-        <v>2.362665454681041e-08</v>
+        <v>9.239122563645874e-09</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5003724965193888</v>
+        <v>0.5003724952731355</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6533043279474436</v>
+        <v>0.6533043279543421</v>
       </c>
       <c r="L22" t="n">
         <v>261</v>
